--- a/webroot/excel/Libro1.xlsx
+++ b/webroot/excel/Libro1.xlsx
@@ -45,15 +45,6 @@
     <t>emp_segundo_apellido</t>
   </si>
   <si>
-    <t>V20005558</t>
-  </si>
-  <si>
-    <t>Cameran</t>
-  </si>
-  <si>
-    <t>Reeves</t>
-  </si>
-  <si>
     <t>V20021209</t>
   </si>
   <si>
@@ -63,15 +54,6 @@
     <t>Gilliam</t>
   </si>
   <si>
-    <t>V20734643</t>
-  </si>
-  <si>
-    <t>Tucker</t>
-  </si>
-  <si>
-    <t>Huber</t>
-  </si>
-  <si>
     <t>V20745192</t>
   </si>
   <si>
@@ -289,13 +271,34 @@
   </si>
   <si>
     <t>Levine</t>
+  </si>
+  <si>
+    <t>V27490639</t>
+  </si>
+  <si>
+    <t>Rhea</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>V20748163</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Bradshaw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +308,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -332,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -344,6 +355,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -647,15 +677,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,34 +714,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="6">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.9993055555555554</v>
+      </c>
+      <c r="E2" s="9">
+        <v>44196</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E2" s="4">
-        <v>44166</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -726,36 +756,42 @@
         <v>44166</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.9993055555555554</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44166</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -769,18 +805,18 @@
       <c r="E5" s="4">
         <v>44166</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -795,17 +831,18 @@
         <v>44166</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -820,17 +857,17 @@
         <v>44166</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -845,17 +882,17 @@
         <v>44166</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -870,17 +907,17 @@
         <v>44166</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -895,17 +932,17 @@
         <v>44166</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -920,17 +957,17 @@
         <v>44166</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -945,17 +982,17 @@
         <v>44166</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -970,17 +1007,17 @@
         <v>44166</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -995,17 +1032,17 @@
         <v>44166</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1020,17 +1057,17 @@
         <v>44166</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1039,17 +1076,17 @@
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1064,17 +1101,17 @@
         <v>44166</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1089,17 +1126,17 @@
         <v>44166</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1114,17 +1151,17 @@
         <v>44166</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1139,17 +1176,17 @@
         <v>44166</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1164,17 +1201,17 @@
         <v>44166</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1189,17 +1226,17 @@
         <v>44166</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1214,17 +1251,17 @@
         <v>44166</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1239,17 +1276,17 @@
         <v>44166</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1264,17 +1301,17 @@
         <v>44166</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1289,17 +1326,17 @@
         <v>44166</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1314,17 +1351,17 @@
         <v>44166</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -1339,17 +1376,17 @@
         <v>44166</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1364,16 +1401,20 @@
         <v>44166</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I29" s="2"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
